--- a/semana9/Features.xlsx
+++ b/semana9/Features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\Dropbox\Escuela Colombiana de Ingeniería\Minería de Datos\Semana 9\Taller 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urobs\Downloads\data-mining\semana9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1037D6-C6F9-4934-9A02-770386C8F192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5204D491-6E5E-4C07-9B0E-BA7E0E0AE6EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C1F1516B-8160-499C-BE73-87C1DEB08C21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1F1516B-8160-499C-BE73-87C1DEB08C21}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -538,16 +536,16 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="99.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="99.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -555,47 +553,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -603,119 +601,119 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>

--- a/semana9/Features.xlsx
+++ b/semana9/Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urobs\Downloads\data-mining\semana9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5204D491-6E5E-4C07-9B0E-BA7E0E0AE6EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF23ACD-203F-4416-B073-037134835455}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1F1516B-8160-499C-BE73-87C1DEB08C21}"/>
   </bookViews>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2D976E-5EA1-4CC4-9F54-74278CE10EFA}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
